--- a/trello_files/eloquent_queries.xlsx
+++ b/trello_files/eloquent_queries.xlsx
@@ -412,14 +412,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -687,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E21:E42" si="1">"insert ignore into categories(name,parent_id) values('"&amp;A22&amp;"','"&amp;C22&amp;"');"</f>
+        <f t="shared" ref="E22:E42" si="1">"insert ignore into categories(name,parent_id) values('"&amp;A22&amp;"','"&amp;C22&amp;"');"</f>
         <v>insert ignore into categories(name,parent_id) values('TOPS','2');</v>
       </c>
     </row>
